--- a/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
+++ b/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sales</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>[data.is_new;noerr]</t>
+  </si>
+  <si>
+    <t>Hub.Terakhir</t>
+  </si>
+  <si>
+    <t>[data.last_activity;noerr]</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,15 +180,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,25 +503,27 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,8 +560,11 @@
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -577,11 +600,14 @@
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
+++ b/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Sales</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>[data.last_activity;noerr]</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>[data.alamat_lengkap;noerr]</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,18 +501,19 @@
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -522,8 +529,9 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -537,34 +545,37 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -578,36 +589,39 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
+++ b/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Sales</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>[data.alamat_lengkap;noerr]</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>[data.expired_pusat;noerr]</t>
   </si>
 </sst>
 </file>
@@ -489,31 +495,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -530,98 +537,105 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
+++ b/vendor/hscstudio/yii2-export/templates/opentbs/penawaran.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bjb\vendor\hscstudio\yii2-export\templates\opentbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\appmarketing\vendor\hscstudio\yii2-export\templates\opentbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Sales</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>[data.alamat_lengkap;noerr]</t>
-  </si>
-  <si>
-    <t>Expired</t>
-  </si>
-  <si>
-    <t>[data.expired_pusat;noerr]</t>
   </si>
 </sst>
 </file>
@@ -495,32 +489,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -537,105 +530,98 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
